--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61860F-05E5-456F-B233-D8ECE12A0406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1CB3A-9B6B-4D78-B4BD-D0111DF9D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>Graphics</t>
   </si>
@@ -71,12 +71,6 @@
     <t>cfp 2024</t>
   </si>
   <si>
-    <t>combine brackets and rounds with bracket signatures</t>
-  </si>
-  <si>
-    <t>merge SST corollaries</t>
-  </si>
-  <si>
     <t>Fix ordered -&gt; proper proof</t>
   </si>
   <si>
@@ -173,21 +167,12 @@
     <t>Suggestions for real formats:</t>
   </si>
   <si>
-    <t>No colons in sentences leading into figures</t>
-  </si>
-  <si>
     <t>Standardize language for induction on r</t>
   </si>
   <si>
-    <t>Remove successor signature idea</t>
-  </si>
-  <si>
     <t>where to put commas, ands, and bullets vs numbers for lists in definitions</t>
   </si>
   <si>
-    <t>Edwards' Theorem Open Questions</t>
-  </si>
-  <si>
     <t>Lots of Oqs and conjectures is great</t>
   </si>
   <si>
@@ -239,7 +224,10 @@
     <t>Swiss</t>
   </si>
   <si>
-    <t>Nowish</t>
+    <t>Edwards' Theorem/Reseeded Open Questions</t>
+  </si>
+  <si>
+    <t>nlf 2024</t>
   </si>
 </sst>
 </file>
@@ -603,7 +591,7 @@
   <dimension ref="B4:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,358 +625,356 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
         <v>5</v>
@@ -996,19 +982,16 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
@@ -1016,39 +999,33 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
         <v>7</v>
@@ -1056,16 +1033,16 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
@@ -1073,16 +1050,16 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
@@ -1090,222 +1067,222 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1CB3A-9B6B-4D78-B4BD-D0111DF9D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECAB17-5447-4BBF-A5DE-830B1E11935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
   <si>
     <t>Graphics</t>
   </si>
@@ -251,12 +251,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,9 +301,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8268EF-D185-4740-9164-A0FF02A9F021}">
-  <dimension ref="B4:K69"/>
+  <dimension ref="B3:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,209 +641,243 @@
     <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
+      <c r="I9" s="6"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="6"/>
       <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
@@ -813,21 +886,25 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H12" t="s">
@@ -836,21 +913,25 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="H13" t="s">
@@ -859,21 +940,25 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H14" t="s">
@@ -882,70 +967,94 @@
       <c r="J14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -953,149 +1062,176 @@
       <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I26" s="3"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECAB17-5447-4BBF-A5DE-830B1E11935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683F033-0900-4D59-B81C-BCB2DBE0F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
   <si>
     <t>Graphics</t>
   </si>
@@ -228,6 +229,9 @@
   </si>
   <si>
     <t>nlf 2024</t>
+  </si>
+  <si>
+    <t>THE NETWORK CONDITION</t>
   </si>
 </sst>
 </file>
@@ -630,29 +634,31 @@
   <dimension ref="B3:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -675,7 +681,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -707,7 +713,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -739,7 +745,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -771,7 +777,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -803,7 +809,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -833,7 +839,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -892,7 +898,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -919,7 +925,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -946,7 +952,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -973,7 +979,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1026,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1043,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1060,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1080,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1099,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1137,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1156,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1175,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1194,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1203,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1211,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1219,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -1221,202 +1227,202 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683F033-0900-4D59-B81C-BCB2DBE0F343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113ADB6-26BD-4482-8ED8-6EE4C88CEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
   <si>
     <t>Graphics</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>THE NETWORK CONDITION</t>
+  </si>
+  <si>
+    <t>itermize vs enumberate</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="B3:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +994,9 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113ADB6-26BD-4482-8ED8-6EE4C88CEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17858C-5FB1-476F-B830-2CDBF3D0D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
   <si>
     <t>Graphics</t>
   </si>
@@ -235,6 +234,9 @@
   </si>
   <si>
     <t>itermize vs enumberate</t>
+  </si>
+  <si>
+    <t>empty tournament is not one</t>
   </si>
 </sst>
 </file>
@@ -637,18 +639,18 @@
   <dimension ref="B3:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -661,7 +663,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -684,7 +686,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -716,7 +718,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -748,7 +750,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -780,7 +782,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -812,7 +814,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -842,7 +844,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -872,7 +874,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -901,7 +903,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -928,7 +930,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -955,7 +957,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -982,7 +984,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1003,11 +1005,13 @@
       <c r="J15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1035,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1052,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1069,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1089,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1108,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1127,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1165,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1184,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1203,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1212,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1220,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1228,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>12</v>
       </c>
@@ -1232,202 +1236,202 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA17858C-5FB1-476F-B830-2CDBF3D0D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AD7F5-1D95-4085-BB7A-BD23926ADD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
   <si>
     <t>Graphics</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>empty tournament is not one</t>
+  </si>
+  <si>
+    <t>confirm everything is true</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="B3:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1024,9 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AD7F5-1D95-4085-BB7A-BD23926ADD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF4C9A4-8B8D-4C99-9C8F-D14209419295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="72">
   <si>
     <t>Graphics</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>confirm everything is true</t>
+  </si>
+  <si>
+    <t>be more clear about what stuff is not mine</t>
+  </si>
+  <si>
+    <t>-&gt; a lot of analysis look at p(1) wins, this is a moral judjement, orderedness is better</t>
+  </si>
+  <si>
+    <t>matchup tables should only show bottom left</t>
+  </si>
+  <si>
+    <t>cite theorems in the name</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -325,6 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8268EF-D185-4740-9164-A0FF02A9F021}">
-  <dimension ref="B3:M69"/>
+  <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +666,7 @@
     <col min="9" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -666,7 +679,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -688,8 +701,11 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -721,7 +737,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -753,7 +769,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -785,7 +801,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -817,7 +833,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -847,7 +863,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -877,7 +893,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -906,7 +922,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -916,7 +932,9 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>54</v>
@@ -933,7 +951,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -960,7 +978,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1005,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1014,7 +1032,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1044,6 +1062,9 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
@@ -1060,6 +1081,9 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF4C9A4-8B8D-4C99-9C8F-D14209419295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D393F7F1-E4EE-4338-8CB7-8E7D637C9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t>Graphics</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>cite theorems in the name</t>
+  </si>
+  <si>
+    <t>appendix?</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1125,9 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>

--- a/thesis-tex/todo.xlsx
+++ b/thesis-tex/todo.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D393F7F1-E4EE-4338-8CB7-8E7D637C9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9694DE6-7516-4ACA-870C-E769AD6B6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>Graphics</t>
   </si>
@@ -255,6 +257,12 @@
   </si>
   <si>
     <t>appendix?</t>
+  </si>
+  <si>
+    <t>Make figures higher res / same font</t>
+  </si>
+  <si>
+    <t>where to put commas, ands, and bullets vs numbers for lists in definitions, itemize vs enumerate</t>
   </si>
 </sst>
 </file>
@@ -359,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -505,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -647,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8268EF-D185-4740-9164-A0FF02A9F021}">
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,4 +1482,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7103E2D-1F50-4993-9D81-162BA3E4B70C}">
+  <dimension ref="C3:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="79.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>